--- a/DOC/use case et scénario/Scénarios 1.xlsx
+++ b/DOC/use case et scénario/Scénarios 1.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonatanperret/OneDrive - CPNV/1ère année/CFC/projet MA-20 bataille naval/use case et scénario/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CODE CLION\MA-20\Bataille Navale\DOC\use case et scénario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_82CEAB1A1B0F28BE90E8DFCD7D230E673B52092D" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B676CF1-83C1-B14C-B281-14A2DB642621}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="78">
   <si>
     <t>scénarios</t>
   </si>
@@ -54,12 +53,6 @@
     <t>connexion à l'utilisateur demandé</t>
   </si>
   <si>
-    <t xml:space="preserve">choix dans le menu de la bataille navale </t>
-  </si>
-  <si>
-    <t>chargement de la carte de manière aléatoire</t>
-  </si>
-  <si>
     <t>entrer les numéros en fonction de la position souhaitée</t>
   </si>
   <si>
@@ -72,12 +65,6 @@
     <t xml:space="preserve">répétition </t>
   </si>
   <si>
-    <t>partie non finie et que l'utilisateur n'a pas entré "EXIT"</t>
-  </si>
-  <si>
-    <t>entrer "EXIT"</t>
-  </si>
-  <si>
     <t xml:space="preserve">partie non finie  </t>
   </si>
   <si>
@@ -213,39 +200,72 @@
     <t>BN001 - jouer une partie et afficher l'aide en jeu</t>
   </si>
   <si>
-    <t>entrez "/help"</t>
-  </si>
-  <si>
-    <t>partie non finie</t>
-  </si>
-  <si>
-    <t>affichage de l'aide</t>
-  </si>
-  <si>
-    <t>Choix "Exit"</t>
-  </si>
-  <si>
-    <t>partie non finie et envie de l'utilisateur</t>
-  </si>
-  <si>
-    <t>"/help" déjà entré</t>
-  </si>
-  <si>
-    <t>retour à la partie</t>
-  </si>
-  <si>
     <t>afficher l'aide dans une partie</t>
   </si>
   <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>partie non finie et que l'utilisateur n'a pas entré "11"</t>
+  </si>
+  <si>
+    <t>un bateau se trouve à ces coordonnées</t>
+  </si>
+  <si>
+    <t>affichage de la case en rouge</t>
+  </si>
+  <si>
+    <t>un bateau ne se trouve pas à ces coordonnées</t>
+  </si>
+  <si>
+    <t>affichage de la case en bleu</t>
+  </si>
+  <si>
+    <t>affichage des cases du bateaux en vert</t>
+  </si>
+  <si>
+    <t>toutes les cases d'un bateau sont touchées</t>
+  </si>
+  <si>
+    <t>toutes les cases de tout les bateaux sont touchées</t>
+  </si>
+  <si>
+    <t>affichage de l'écran de victoire</t>
+  </si>
+  <si>
+    <t>entrer "11"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">choix "jouer une partie" dans le menu de la bataille navale </t>
+  </si>
+  <si>
+    <t>chargement de la carte de manière aléatoire entre 3 choix de cartes</t>
+  </si>
+  <si>
+    <t>l'utilisateur entre "12"</t>
+  </si>
+  <si>
+    <t>être dans une partie</t>
+  </si>
+  <si>
+    <t>affichage de l'écran d'aide</t>
+  </si>
+  <si>
+    <t>Choix "quitter"</t>
+  </si>
+  <si>
+    <t>être dans l'écran d'aide</t>
+  </si>
+  <si>
+    <t>retour à la partie commencée</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;CHF&quot;#,##0.00;[Red]&quot;CHF&quot;\-#,##0.00"/>
+    <numFmt numFmtId="8" formatCode="&quot;CHF&quot;#,##0.00;[Red]&quot;CHF&quot;\-#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -286,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -361,51 +381,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -518,56 +493,6 @@
         <color auto="1"/>
       </top>
       <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -576,15 +501,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -596,40 +521,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -912,249 +815,249 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="D2:AN44"/>
+  <dimension ref="D2:AN34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AR115" sqref="AR115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="9" max="9" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="9" max="9" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="36" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.5" customWidth="1"/>
-    <col min="16" max="16" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="38.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="31.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="31.83203125" customWidth="1"/>
-    <col min="25" max="25" width="51.5" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.42578125" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="31.85546875" customWidth="1"/>
+    <col min="25" max="25" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="4:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="4:26" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="D4" s="17" t="s">
+    <row r="3" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="4:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="X4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="I6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="I4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="13" t="s">
+      <c r="N6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="X6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="4:26" x14ac:dyDescent="0.25">
+      <c r="D7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="S4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="T4" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y4" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="N7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="X7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="I5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="14" t="s">
+      <c r="I8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="J8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O5" s="14" t="s">
+      <c r="N8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="T5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="X5" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y5" s="14" t="s">
+      <c r="S8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="T8" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="6" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="N6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="O6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="S6" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="X7" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y7" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="4:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="N8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="S8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="T8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="X8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y8" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="4:26" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="4:26" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="4:26" s="21" customFormat="1" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="20" t="s">
+      <c r="X8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y8" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="4:26" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="4:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="4:26" s="16" customFormat="1" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="20" t="s">
+      <c r="I14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="20" t="s">
+      <c r="J14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="20" t="s">
+      <c r="N14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="P14" s="20" t="s">
+      <c r="P14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="S14" s="20" t="s">
+      <c r="S14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="T14" s="20" t="s">
+      <c r="T14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="U14" s="20" t="s">
+      <c r="U14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="X14" s="20" t="s">
+      <c r="X14" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="Y14" s="20" t="s">
+      <c r="Y14" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="Z14" s="20" t="s">
+      <c r="Z14" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="4:26" ht="33" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:26" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,46 +1104,46 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="4:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:26" ht="30" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="T16" s="2"/>
       <c r="U16" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="X16" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="4:40" ht="32" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="4:40" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>7</v>
@@ -1249,7 +1152,7 @@
         <v>8</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>7</v>
@@ -1258,7 +1161,7 @@
         <v>8</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="O17" s="5" t="s">
         <v>7</v>
@@ -1267,14 +1170,14 @@
         <v>8</v>
       </c>
       <c r="S17" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="T17" s="5"/>
       <c r="U17" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="Y17" s="5" t="s">
         <v>7</v>
@@ -1283,563 +1186,311 @@
         <v>8</v>
       </c>
       <c r="AN17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="4:40" ht="32" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="4:40" ht="45" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="E18" s="5"/>
-      <c r="F18" s="10" t="s">
-        <v>10</v>
+      <c r="F18" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="J18" s="5"/>
-      <c r="K18" s="10" t="s">
-        <v>21</v>
+      <c r="K18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="O18" s="5"/>
-      <c r="P18" s="10" t="s">
-        <v>28</v>
+      <c r="P18" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="10" t="s">
-        <v>23</v>
+      <c r="U18" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="X18" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D19" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="4:40" ht="32" x14ac:dyDescent="0.2">
-      <c r="D19" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="E19" s="5"/>
       <c r="F19" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O19" s="5"/>
       <c r="P19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="6"/>
-      <c r="X19" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="AC19" s="27"/>
-      <c r="AD19" s="27"/>
-      <c r="AE19" s="27"/>
-    </row>
-    <row r="20" spans="4:40" ht="16" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="X19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC19" s="17"/>
+      <c r="AD19" s="17"/>
+      <c r="AE19" s="17"/>
+    </row>
+    <row r="20" spans="4:40" x14ac:dyDescent="0.25">
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O20" s="5"/>
       <c r="P20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="6"/>
-      <c r="X20" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z21" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="Y20" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z20" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="4:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="6"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="5"/>
-      <c r="P21" s="6"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="6"/>
-      <c r="X21" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Y21" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="22" spans="4:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="D22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="6"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="6"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="6"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="4:40" ht="16" x14ac:dyDescent="0.2">
+      <c r="X22" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z22" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="4:40" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="4"/>
       <c r="E23" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="6"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="6"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="6"/>
+        <v>64</v>
+      </c>
       <c r="X23" s="4" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="Y23" s="5" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="Z23" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="4:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="D24" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D24" s="4"/>
       <c r="E24" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="6"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="6"/>
+        <v>65</v>
+      </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="5" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="Z24" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="4:40" ht="32" x14ac:dyDescent="0.2">
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F25" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="6"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="5"/>
-      <c r="P25" s="6"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="6"/>
+        <v>68</v>
+      </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="Z25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="4:40" ht="16" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="4:40" ht="30" x14ac:dyDescent="0.25">
       <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="6"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="6"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="6"/>
-      <c r="X26" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="E26" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X26" s="4"/>
       <c r="Y26" s="5" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="Z26" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="27" spans="4:40" ht="16" x14ac:dyDescent="0.2">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="6"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="6"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="6"/>
-      <c r="X27" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z27" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="6" t="s">
+      <c r="Z28" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="6"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="6"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="6"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="6"/>
-    </row>
-    <row r="29" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="6"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="6"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="6"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="6"/>
-    </row>
-    <row r="30" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D30" s="4"/>
+    <row r="29" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z29" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="4:40" ht="30" x14ac:dyDescent="0.25">
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="6"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="6"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="X30" s="4"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="6"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="5"/>
-      <c r="P31" s="6"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="6"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32" spans="4:40" x14ac:dyDescent="0.2">
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="6"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="6"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="6"/>
-      <c r="X32" s="4"/>
+      <c r="Y30" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z30" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="X31" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z31" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="4:40" x14ac:dyDescent="0.25">
+      <c r="X32" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="6"/>
-    </row>
-    <row r="33" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="6"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="6"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="6"/>
-      <c r="X33" s="4"/>
+      <c r="Z32" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="24:26" x14ac:dyDescent="0.25">
+      <c r="X33" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="6"/>
-    </row>
-    <row r="34" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="6"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="6"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="6"/>
+      <c r="Z33" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="24:26" x14ac:dyDescent="0.25">
       <c r="X34" s="4"/>
       <c r="Y34" s="5"/>
       <c r="Z34" s="6"/>
     </row>
-    <row r="35" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="6"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="6"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="6"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="6"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="5"/>
-      <c r="P36" s="6"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="6"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="6"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="5"/>
-      <c r="P37" s="6"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="6"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="6"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="5"/>
-      <c r="P38" s="6"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="6"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="6"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="5"/>
-      <c r="P39" s="6"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="6"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="5"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="6"/>
-      <c r="N40" s="4"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="6"/>
-      <c r="S40" s="4"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="6"/>
-      <c r="X40" s="4"/>
-      <c r="Y40" s="5"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="6"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="6"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="6"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="6"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="5"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42" spans="4:26" x14ac:dyDescent="0.2">
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="6"/>
-      <c r="S42" s="4"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="6"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="5"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43" spans="4:26" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="7"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="9"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="8"/>
-      <c r="P43" s="9"/>
-      <c r="S43" s="7"/>
-      <c r="T43" s="8"/>
-      <c r="U43" s="9"/>
-      <c r="X43" s="7"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="9"/>
-    </row>
-    <row r="44" spans="4:26" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
